--- a/srcs/shablons/TPDS_CD.xlsx
+++ b/srcs/shablons/TPDS_CD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\ENGGEO_program\srcs\shablons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\srcs\shablons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD388691-FA91-4A1E-BC23-21EBC2AC148D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBCC9BA-4F43-4451-B27D-39D8824AA3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1281,24 +1281,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3039,19 +3039,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1'!$K$65:$K$2000</c:f>
+              <c:f>'1'!$K$65:$K$200000</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1936"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1'!$J$65:$J$2000</c:f>
+              <c:f>'1'!$J$65:$J$200000</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1936"/>
+                <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3082,19 +3082,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1'!$M$65:$M$2000</c:f>
+              <c:f>'1'!$M$65:$M$200000</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1936"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1'!$L$65:$L$2000</c:f>
+              <c:f>'1'!$L$65:$L$200000</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1936"/>
+                <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3125,19 +3125,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1'!$O$65:$O$2000</c:f>
+              <c:f>'1'!$O$65:$O$200000</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1936"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1'!$N$65:$N$2000</c:f>
+              <c:f>'1'!$N$65:$N$200000</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1936"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3491,19 +3491,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1'!$G$65:$G$2000</c:f>
+              <c:f>'1'!$G$65:$G$200000</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1936"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1'!$F$65:$F$2000</c:f>
+              <c:f>'1'!$F$65:$F$200000</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1936"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3721,7 +3721,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3825,7 +3825,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3985,19 +3985,19 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1'!$G$65:$G$2000</c:f>
+              <c:f>'1'!$G$65:$G$200000</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="1936"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1'!$F$65:$F$2000</c:f>
+              <c:f>'1'!$F$65:$F$200000</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1936"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4082,9 +4082,9 @@
             <c:numRef>
               <c:f>'1'!$A$81:$A$82</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -4150,9 +4150,9 @@
             <c:numRef>
               <c:f>'1'!$A$75:$A$76</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -4204,7 +4204,7 @@
             <c:numRef>
               <c:f>'1'!$A$85:$A$86</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4258,7 +4258,7 @@
             <c:numRef>
               <c:f>'1'!$A$88:$A$89</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
@@ -4312,7 +4312,7 @@
             <c:numRef>
               <c:f>'1'!$A$78:$A$79</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4425,7 +4425,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4530,7 +4530,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5292,8 +5292,8 @@
   </sheetPr>
   <dimension ref="A1:BF564"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5323,7 +5323,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="151"/>
@@ -5337,7 +5337,7 @@
       <c r="J1" s="151"/>
       <c r="K1" s="151"/>
       <c r="L1" s="120"/>
-      <c r="M1" s="150" t="s">
+      <c r="M1" s="153" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="151"/>
@@ -5394,7 +5394,7 @@
       <c r="BC1" s="40"/>
     </row>
     <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="153" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="151"/>
@@ -5408,7 +5408,7 @@
       <c r="J2" s="151"/>
       <c r="K2" s="151"/>
       <c r="L2" s="120"/>
-      <c r="M2" s="150" t="s">
+      <c r="M2" s="153" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="151"/>
@@ -5498,7 +5498,7 @@
       <c r="BD2" s="50"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="153" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="151"/>
@@ -5512,7 +5512,7 @@
       <c r="J3" s="151"/>
       <c r="K3" s="151"/>
       <c r="L3" s="120"/>
-      <c r="M3" s="150" t="s">
+      <c r="M3" s="153" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="151"/>
@@ -5664,7 +5664,7 @@
       <c r="BC4" s="58"/>
     </row>
     <row r="5" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="153" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="151"/>
@@ -5678,7 +5678,7 @@
       <c r="J5" s="151"/>
       <c r="K5" s="151"/>
       <c r="L5" s="120"/>
-      <c r="M5" s="150" t="s">
+      <c r="M5" s="153" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="151"/>
@@ -5767,7 +5767,7 @@
       <c r="BC5" s="58"/>
     </row>
     <row r="6" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="152" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="151"/>
@@ -5781,7 +5781,7 @@
       <c r="J6" s="151"/>
       <c r="K6" s="151"/>
       <c r="L6" s="121"/>
-      <c r="M6" s="154" t="s">
+      <c r="M6" s="152" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="151"/>
@@ -5860,7 +5860,7 @@
       <c r="BF6" s="67"/>
     </row>
     <row r="7" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="150" t="s">
+      <c r="A7" s="153" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="151"/>
@@ -5874,7 +5874,7 @@
       <c r="J7" s="151"/>
       <c r="K7" s="151"/>
       <c r="L7" s="120"/>
-      <c r="M7" s="150" t="s">
+      <c r="M7" s="153" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="151"/>
@@ -6042,7 +6042,7 @@
       <c r="BF8" s="67"/>
     </row>
     <row r="9" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="156"/>
+      <c r="A9" s="155"/>
       <c r="B9" s="151"/>
       <c r="C9" s="151"/>
       <c r="D9" s="151"/>
@@ -6054,7 +6054,7 @@
       <c r="J9" s="151"/>
       <c r="K9" s="151"/>
       <c r="L9" s="151"/>
-      <c r="M9" s="156"/>
+      <c r="M9" s="155"/>
       <c r="N9" s="151"/>
       <c r="O9" s="151"/>
       <c r="P9" s="151"/>
@@ -6860,7 +6860,7 @@
       <c r="BC17" s="58"/>
     </row>
     <row r="18" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="155" t="s">
+      <c r="A18" s="154" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="151"/>
@@ -6874,7 +6874,7 @@
       <c r="J18" s="151"/>
       <c r="K18" s="151"/>
       <c r="L18" s="123"/>
-      <c r="M18" s="155" t="s">
+      <c r="M18" s="154" t="s">
         <v>22</v>
       </c>
       <c r="N18" s="151"/>
@@ -7706,7 +7706,7 @@
       <c r="BC26" s="58"/>
     </row>
     <row r="27" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="155" t="s">
+      <c r="A27" s="154" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="151"/>
@@ -7720,7 +7720,7 @@
       <c r="J27" s="151"/>
       <c r="K27" s="151"/>
       <c r="L27" s="123"/>
-      <c r="M27" s="155" t="s">
+      <c r="M27" s="154" t="s">
         <v>36</v>
       </c>
       <c r="N27" s="151"/>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="AZ49">
         <f ca="1">-AZ50-AZ51</f>
-        <v>-0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="AZ51">
         <f ca="1">RANDBETWEEN(-3,3)*0.01</f>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="52" spans="1:52" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9414,7 +9414,7 @@
       <c r="U59" s="10"/>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A60" s="152" t="s">
+      <c r="A60" s="156" t="s">
         <v>64</v>
       </c>
       <c r="B60" s="151"/>
@@ -9428,7 +9428,7 @@
       <c r="J60" s="151"/>
       <c r="K60" s="151"/>
       <c r="L60" s="124"/>
-      <c r="M60" s="152" t="s">
+      <c r="M60" s="156" t="s">
         <v>65</v>
       </c>
       <c r="N60" s="151"/>
@@ -9441,7 +9441,7 @@
       <c r="U60" s="151"/>
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A61" s="153" t="s">
+      <c r="A61" s="150" t="s">
         <v>66</v>
       </c>
       <c r="B61" s="151"/>
@@ -9455,7 +9455,7 @@
       <c r="J61" s="151"/>
       <c r="K61" s="151"/>
       <c r="L61" s="122"/>
-      <c r="M61" s="153" t="s">
+      <c r="M61" s="150" t="s">
         <v>66</v>
       </c>
       <c r="N61" s="151"/>
@@ -14766,6 +14766,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="M7:U7"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="M1:U1"/>
     <mergeCell ref="A61:K61"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="M6:U6"/>
@@ -14778,16 +14788,6 @@
     <mergeCell ref="M9:V9"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="M60:U60"/>
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="M7:U7"/>
-    <mergeCell ref="M3:U3"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="M1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="62" fitToWidth="2" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/srcs/shablons/TPDS_CD.xlsx
+++ b/srcs/shablons/TPDS_CD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\srcs\shablons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBCC9BA-4F43-4451-B27D-39D8824AA3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1201FE2D-45AC-4A8F-AE8C-2D16AC39BBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1281,24 +1281,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3041,7 +3041,7 @@
             <c:numRef>
               <c:f>'1'!$K$65:$K$200000</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
@@ -3084,7 +3084,7 @@
             <c:numRef>
               <c:f>'1'!$M$65:$M$200000</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
@@ -3127,7 +3127,7 @@
             <c:numRef>
               <c:f>'1'!$O$65:$O$200000</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
@@ -3136,7 +3136,7 @@
             <c:numRef>
               <c:f>'1'!$N$65:$N$200000</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
@@ -3493,7 +3493,7 @@
             <c:numRef>
               <c:f>'1'!$G$65:$G$200000</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
@@ -3502,7 +3502,7 @@
             <c:numRef>
               <c:f>'1'!$F$65:$F$200000</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
@@ -3721,7 +3721,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3825,7 +3825,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3987,7 +3987,7 @@
             <c:numRef>
               <c:f>'1'!$G$65:$G$200000</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
@@ -3996,7 +3996,7 @@
             <c:numRef>
               <c:f>'1'!$F$65:$F$200000</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="199936"/>
               </c:numCache>
             </c:numRef>
@@ -4082,9 +4082,9 @@
             <c:numRef>
               <c:f>'1'!$A$81:$A$82</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -4150,9 +4150,9 @@
             <c:numRef>
               <c:f>'1'!$A$75:$A$76</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -4204,7 +4204,7 @@
             <c:numRef>
               <c:f>'1'!$A$85:$A$86</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4258,7 +4258,7 @@
             <c:numRef>
               <c:f>'1'!$A$88:$A$89</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
@@ -4312,7 +4312,7 @@
             <c:numRef>
               <c:f>'1'!$A$78:$A$79</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4425,7 +4425,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4530,7 +4530,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5292,8 +5292,8 @@
   </sheetPr>
   <dimension ref="A1:BF564"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="S81" sqref="S81"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E44" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X52" sqref="X52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5323,7 +5323,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="151"/>
@@ -5337,7 +5337,7 @@
       <c r="J1" s="151"/>
       <c r="K1" s="151"/>
       <c r="L1" s="120"/>
-      <c r="M1" s="153" t="s">
+      <c r="M1" s="150" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="151"/>
@@ -5394,7 +5394,7 @@
       <c r="BC1" s="40"/>
     </row>
     <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="150" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="151"/>
@@ -5408,7 +5408,7 @@
       <c r="J2" s="151"/>
       <c r="K2" s="151"/>
       <c r="L2" s="120"/>
-      <c r="M2" s="153" t="s">
+      <c r="M2" s="150" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="151"/>
@@ -5498,7 +5498,7 @@
       <c r="BD2" s="50"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="150" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="151"/>
@@ -5512,7 +5512,7 @@
       <c r="J3" s="151"/>
       <c r="K3" s="151"/>
       <c r="L3" s="120"/>
-      <c r="M3" s="153" t="s">
+      <c r="M3" s="150" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="151"/>
@@ -5664,7 +5664,7 @@
       <c r="BC4" s="58"/>
     </row>
     <row r="5" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="150" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="151"/>
@@ -5678,7 +5678,7 @@
       <c r="J5" s="151"/>
       <c r="K5" s="151"/>
       <c r="L5" s="120"/>
-      <c r="M5" s="153" t="s">
+      <c r="M5" s="150" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="151"/>
@@ -5767,7 +5767,7 @@
       <c r="BC5" s="58"/>
     </row>
     <row r="6" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="154" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="151"/>
@@ -5781,7 +5781,7 @@
       <c r="J6" s="151"/>
       <c r="K6" s="151"/>
       <c r="L6" s="121"/>
-      <c r="M6" s="152" t="s">
+      <c r="M6" s="154" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="151"/>
@@ -5860,7 +5860,7 @@
       <c r="BF6" s="67"/>
     </row>
     <row r="7" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="150" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="151"/>
@@ -5874,7 +5874,7 @@
       <c r="J7" s="151"/>
       <c r="K7" s="151"/>
       <c r="L7" s="120"/>
-      <c r="M7" s="153" t="s">
+      <c r="M7" s="150" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="151"/>
@@ -6042,7 +6042,7 @@
       <c r="BF8" s="67"/>
     </row>
     <row r="9" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="155"/>
+      <c r="A9" s="156"/>
       <c r="B9" s="151"/>
       <c r="C9" s="151"/>
       <c r="D9" s="151"/>
@@ -6054,7 +6054,7 @@
       <c r="J9" s="151"/>
       <c r="K9" s="151"/>
       <c r="L9" s="151"/>
-      <c r="M9" s="155"/>
+      <c r="M9" s="156"/>
       <c r="N9" s="151"/>
       <c r="O9" s="151"/>
       <c r="P9" s="151"/>
@@ -6860,7 +6860,7 @@
       <c r="BC17" s="58"/>
     </row>
     <row r="18" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="155" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="151"/>
@@ -6874,7 +6874,7 @@
       <c r="J18" s="151"/>
       <c r="K18" s="151"/>
       <c r="L18" s="123"/>
-      <c r="M18" s="154" t="s">
+      <c r="M18" s="155" t="s">
         <v>22</v>
       </c>
       <c r="N18" s="151"/>
@@ -7706,7 +7706,7 @@
       <c r="BC26" s="58"/>
     </row>
     <row r="27" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="154" t="s">
+      <c r="A27" s="155" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="151"/>
@@ -7720,7 +7720,7 @@
       <c r="J27" s="151"/>
       <c r="K27" s="151"/>
       <c r="L27" s="123"/>
-      <c r="M27" s="154" t="s">
+      <c r="M27" s="155" t="s">
         <v>36</v>
       </c>
       <c r="N27" s="151"/>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="AZ49">
         <f ca="1">-AZ50-AZ51</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="50" spans="1:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="AZ51">
         <f ca="1">RANDBETWEEN(-3,3)*0.01</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:52" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9414,7 +9414,7 @@
       <c r="U59" s="10"/>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A60" s="156" t="s">
+      <c r="A60" s="152" t="s">
         <v>64</v>
       </c>
       <c r="B60" s="151"/>
@@ -9428,7 +9428,7 @@
       <c r="J60" s="151"/>
       <c r="K60" s="151"/>
       <c r="L60" s="124"/>
-      <c r="M60" s="156" t="s">
+      <c r="M60" s="152" t="s">
         <v>65</v>
       </c>
       <c r="N60" s="151"/>
@@ -9441,7 +9441,7 @@
       <c r="U60" s="151"/>
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A61" s="150" t="s">
+      <c r="A61" s="153" t="s">
         <v>66</v>
       </c>
       <c r="B61" s="151"/>
@@ -9455,7 +9455,7 @@
       <c r="J61" s="151"/>
       <c r="K61" s="151"/>
       <c r="L61" s="122"/>
-      <c r="M61" s="150" t="s">
+      <c r="M61" s="153" t="s">
         <v>66</v>
       </c>
       <c r="N61" s="151"/>
@@ -14766,16 +14766,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M2:U2"/>
-    <mergeCell ref="A60:K60"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="M7:U7"/>
-    <mergeCell ref="M3:U3"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="M1:U1"/>
     <mergeCell ref="A61:K61"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="M6:U6"/>
@@ -14788,6 +14778,16 @@
     <mergeCell ref="M9:V9"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="M60:U60"/>
+    <mergeCell ref="M2:U2"/>
+    <mergeCell ref="A60:K60"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="M7:U7"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="M1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="62" fitToWidth="2" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
